--- a/Oracle/데이터베이스 실습_고객방문기록2.xlsx
+++ b/Oracle/데이터베이스 실습_고객방문기록2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="94">
   <si>
     <t>고객이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,7 +414,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -533,10 +533,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -3329,8 +3329,8 @@
   </sheetPr>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q10" activeCellId="1" sqref="P10 Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3779,11 +3779,11 @@
       <c r="J11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="4">
-        <v>1979</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>93</v>
+      <c r="P11" s="2">
+        <v>1987</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3815,7 +3815,7 @@
         <v>60</v>
       </c>
       <c r="P12" s="2">
-        <v>1987</v>
+        <v>1999</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>87</v>
@@ -3848,12 +3848,6 @@
       </c>
       <c r="J13" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1999</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
